--- a/Correlation data/Correlations_RUVBitesTot.xlsx
+++ b/Correlation data/Correlations_RUVBitesTot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d03c6ea88daad3e/Documenten/Shimoni/DATA/R/Github/Herbivory/Herbivory grazing/Correlation data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5A4EA7-34BE-45AF-8D69-3A046D334F02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD91777-7DD0-49CA-A96C-8AFFEAEBF897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
